--- a/MedicalDecisionDiabetes/MDDMparameters.xlsx
+++ b/MedicalDecisionDiabetes/MDDMparameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jnascime/Dropbox/PythonProjects/ORF411/github_private/seqdecisionlib_Diabetes/MedicalDecisionDiabetes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jade0001\Documents\01 - Vorlesungen\Stochastische Optimierungsprobleme\stochastic-optimization\MedicalDecisionDiabetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8596F3-EF90-944E-84B4-4D7C06420598}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B168170A-D611-4E10-8B00-8D155F7E03D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28100" yWindow="460" windowWidth="23040" windowHeight="10160" activeTab="2" xr2:uid="{0DB32CC8-A0F8-4A1F-8469-0451A56A93A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0DB32CC8-A0F8-4A1F-8469-0451A56A93A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="parameters2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,9 +102,6 @@
     <t>prior_mult_b</t>
   </si>
   <si>
-    <t>fixed_uniform</t>
-  </si>
-  <si>
     <t>mu_prior_0</t>
   </si>
   <si>
@@ -191,6 +189,194 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Adjust columns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prior_mult_a and prior_mult_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when the "truth_type" is "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prior_uniform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adjust columns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mu_fixed,  fixed_uniform_a and fixed_uniform_b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when the "truth_type" is "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fixed_uniform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adjust columns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mu_truth and sigma_truth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when the "truth_type" are "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>known" or "normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adjust columns </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mu_0 and sigma_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to set up the initial parameters of the prior. Those columns are used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALL types of "truth_type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that you might select in sheet "parameters2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Sheet </t>
     </r>
     <r>
@@ -254,196 +440,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. For example, for question 2, use truth_type="known". For question 3.a, use truth_type="fixed_uniform".  For question 3.b, use truth_type="prior_uniform". </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adjust columns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prior_mult_a and prior_mult_b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when the "truth_type" is "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prior_uniform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adjust columns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mu_fixed,  fixed_uniform_a and fixed_uniform_b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when the "truth_type" is "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fixed_uniform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adjust columns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mu_truth and sigma_truth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> when the "truth_type" are "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>known" or "normal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adjust columns </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mu_0 and sigma_0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to set up the initial parameters of the prior. Those columns are used for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ALL types of "truth_type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> that you might select in sheet "parameters2"</t>
-    </r>
+      <t xml:space="preserve">. For example, for question 4.16, use truth_type="known". For question 4.17 a), use truth_type="fixed_uniform".  For question 4.17 b), use truth_type="prior_uniform". </t>
+    </r>
+  </si>
+  <si>
+    <t>known</t>
   </si>
 </sst>
 </file>
@@ -811,23 +812,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC70B3A-BEBA-564B-A9E3-005424252FEF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -840,24 +839,26 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="5" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="11" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -886,16 +887,16 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -933,10 +934,10 @@
         <v>0.12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -944,7 +945,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C3">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="D3">
         <v>0.3</v>
@@ -974,10 +975,10 @@
         <v>0.19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1015,10 +1016,10 @@
         <v>0.17</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1056,10 +1057,10 @@
         <v>0.15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>0.21</v>
       </c>
       <c r="C6">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="D6">
         <v>0.24</v>
@@ -1107,32 +1108,32 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1148,26 +1149,26 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1175,18 +1176,18 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
